--- a/tests/testthat/testdata/data_tests3.xlsx
+++ b/tests/testthat/testdata/data_tests3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\analysis\UMARfetchR\tests\testthat\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02DC4E-C7F4-4801-9F2A-88737A1924E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BC1C6B-B53C-49D9-9D2F-F21703E9E4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{962EBF43-965C-4D9C-A42A-59DF050B20F4}"/>
+    <workbookView xWindow="4035" yWindow="3645" windowWidth="18900" windowHeight="11160" activeTab="1" xr2:uid="{962EBF43-965C-4D9C-A42A-59DF050B20F4}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">period </t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>UMAR--MZ002--12--M</t>
-  </si>
-  <si>
-    <t>2020M01</t>
-  </si>
-  <si>
-    <t>2020M02</t>
-  </si>
-  <si>
-    <t>2020M03</t>
   </si>
   <si>
     <t>UMAR--MZ007--LKJ--11--A</t>
@@ -97,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +408,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,8 +425,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>43831</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -444,8 +436,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="1">
+        <v>43862</v>
       </c>
       <c r="B3">
         <v>212</v>
@@ -455,8 +447,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="1">
+        <v>43892</v>
       </c>
       <c r="B4">
         <v>213</v>
@@ -482,10 +474,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
